--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il17c-Il17ra.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.3020803333333333</v>
+        <v>0.8471436666666667</v>
       </c>
       <c r="H2">
-        <v>0.9062410000000001</v>
+        <v>2.541431</v>
       </c>
       <c r="I2">
-        <v>0.09157222970918595</v>
+        <v>0.1466263936520443</v>
       </c>
       <c r="J2">
-        <v>0.09157222970918596</v>
+        <v>0.1466263936520442</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.419936333333333</v>
+        <v>1.70492</v>
       </c>
       <c r="N2">
-        <v>4.259809000000001</v>
+        <v>5.11476</v>
       </c>
       <c r="O2">
-        <v>0.03286094075819314</v>
+        <v>0.03706669070739754</v>
       </c>
       <c r="P2">
-        <v>0.03286094075819315</v>
+        <v>0.03706669070739754</v>
       </c>
       <c r="Q2">
-        <v>0.4289348408854445</v>
+        <v>1.444312180173334</v>
       </c>
       <c r="R2">
-        <v>3.860413567969001</v>
+        <v>12.99880962156</v>
       </c>
       <c r="S2">
-        <v>0.003009149615569213</v>
+        <v>0.005434955183041443</v>
       </c>
       <c r="T2">
-        <v>0.003009149615569214</v>
+        <v>0.005434955183041442</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.3020803333333333</v>
+        <v>0.8471436666666667</v>
       </c>
       <c r="H3">
-        <v>0.9062410000000001</v>
+        <v>2.541431</v>
       </c>
       <c r="I3">
-        <v>0.09157222970918595</v>
+        <v>0.1466263936520443</v>
       </c>
       <c r="J3">
-        <v>0.09157222970918596</v>
+        <v>0.1466263936520442</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>26.608287</v>
       </c>
       <c r="O3">
-        <v>0.2052611614239044</v>
+        <v>0.1928303858798197</v>
       </c>
       <c r="P3">
-        <v>0.2052611614239044</v>
+        <v>0.1928303858798197</v>
       </c>
       <c r="Q3">
-        <v>2.679280068796333</v>
+        <v>7.513680604299667</v>
       </c>
       <c r="R3">
-        <v>24.113520619167</v>
+        <v>67.623125438697</v>
       </c>
       <c r="S3">
-        <v>0.01879622222428407</v>
+        <v>0.02827402406809005</v>
       </c>
       <c r="T3">
-        <v>0.01879622222428407</v>
+        <v>0.02827402406809004</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.3020803333333333</v>
+        <v>0.8471436666666667</v>
       </c>
       <c r="H4">
-        <v>0.9062410000000001</v>
+        <v>2.541431</v>
       </c>
       <c r="I4">
-        <v>0.09157222970918595</v>
+        <v>0.1466263936520443</v>
       </c>
       <c r="J4">
-        <v>0.09157222970918596</v>
+        <v>0.1466263936520442</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.38275833333333</v>
+        <v>19.16401333333333</v>
       </c>
       <c r="N4">
-        <v>37.148275</v>
+        <v>57.49204</v>
       </c>
       <c r="O4">
-        <v>0.286568544280757</v>
+        <v>0.4166450947487912</v>
       </c>
       <c r="P4">
-        <v>0.286568544280757</v>
+        <v>0.4166450947487912</v>
       </c>
       <c r="Q4">
-        <v>3.740587764919444</v>
+        <v>16.23467252324889</v>
       </c>
       <c r="R4">
-        <v>33.665289884275</v>
+        <v>146.11205270924</v>
       </c>
       <c r="S4">
-        <v>0.0262417205643045</v>
+        <v>0.06109116767582955</v>
       </c>
       <c r="T4">
-        <v>0.02624172056430451</v>
+        <v>0.06109116767582953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.3020803333333333</v>
+        <v>0.8471436666666667</v>
       </c>
       <c r="H5">
-        <v>0.9062410000000001</v>
+        <v>2.541431</v>
       </c>
       <c r="I5">
-        <v>0.09157222970918595</v>
+        <v>0.1466263936520443</v>
       </c>
       <c r="J5">
-        <v>0.09157222970918596</v>
+        <v>0.1466263936520442</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.577792666666667</v>
+        <v>1.45683</v>
       </c>
       <c r="N5">
-        <v>4.733378</v>
+        <v>4.37049</v>
       </c>
       <c r="O5">
-        <v>0.0365141380855655</v>
+        <v>0.0316729623813774</v>
       </c>
       <c r="P5">
-        <v>0.03651413808556551</v>
+        <v>0.0316729623813774</v>
       </c>
       <c r="Q5">
-        <v>0.4766201346775555</v>
+        <v>1.23414430791</v>
       </c>
       <c r="R5">
-        <v>4.289581212098001</v>
+        <v>11.10729877119</v>
       </c>
       <c r="S5">
-        <v>0.003343681040404339</v>
+        <v>0.004644092250258232</v>
       </c>
       <c r="T5">
-        <v>0.003343681040404341</v>
+        <v>0.004644092250258232</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.3020803333333333</v>
+        <v>0.8471436666666667</v>
       </c>
       <c r="H6">
-        <v>0.9062410000000001</v>
+        <v>2.541431</v>
       </c>
       <c r="I6">
-        <v>0.09157222970918595</v>
+        <v>0.1466263936520443</v>
       </c>
       <c r="J6">
-        <v>0.09157222970918596</v>
+        <v>0.1466263936520442</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>18.96054266666667</v>
+        <v>14.800821</v>
       </c>
       <c r="N6">
-        <v>56.88162800000001</v>
+        <v>44.402463</v>
       </c>
       <c r="O6">
-        <v>0.4387952154515801</v>
+        <v>0.321784866282614</v>
       </c>
       <c r="P6">
-        <v>0.4387952154515802</v>
+        <v>0.321784866282614</v>
       </c>
       <c r="Q6">
-        <v>5.727607048927556</v>
+        <v>12.538421771617</v>
       </c>
       <c r="R6">
-        <v>51.54846344034801</v>
+        <v>112.845795944553</v>
       </c>
       <c r="S6">
-        <v>0.04018145626462383</v>
+        <v>0.04718215447482499</v>
       </c>
       <c r="T6">
-        <v>0.04018145626462385</v>
+        <v>0.04718215447482498</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>1.262398</v>
       </c>
       <c r="I7">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="J7">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.419936333333333</v>
+        <v>1.70492</v>
       </c>
       <c r="N7">
-        <v>4.259809000000001</v>
+        <v>5.11476</v>
       </c>
       <c r="O7">
-        <v>0.03286094075819314</v>
+        <v>0.03706669070739754</v>
       </c>
       <c r="P7">
-        <v>0.03286094075819315</v>
+        <v>0.03706669070739754</v>
       </c>
       <c r="Q7">
-        <v>0.5975082624424445</v>
+        <v>0.7174291993866667</v>
       </c>
       <c r="R7">
-        <v>5.377574361982</v>
+        <v>6.45686279448</v>
       </c>
       <c r="S7">
-        <v>0.004191759649359655</v>
+        <v>0.00269969027416489</v>
       </c>
       <c r="T7">
-        <v>0.004191759649359656</v>
+        <v>0.00269969027416489</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>1.262398</v>
       </c>
       <c r="I8">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="J8">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>26.608287</v>
       </c>
       <c r="O8">
-        <v>0.2052611614239044</v>
+        <v>0.1928303858798197</v>
       </c>
       <c r="P8">
-        <v>0.2052611614239044</v>
+        <v>0.1928303858798197</v>
       </c>
       <c r="Q8">
         <v>3.732249810247333</v>
@@ -948,10 +948,10 @@
         <v>33.590248292226</v>
       </c>
       <c r="S8">
-        <v>0.02618322647451589</v>
+        <v>0.01404447786916455</v>
       </c>
       <c r="T8">
-        <v>0.02618322647451589</v>
+        <v>0.01404447786916455</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>1.262398</v>
       </c>
       <c r="I9">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="J9">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>12.38275833333333</v>
+        <v>19.16401333333333</v>
       </c>
       <c r="N9">
-        <v>37.148275</v>
+        <v>57.49204</v>
       </c>
       <c r="O9">
-        <v>0.286568544280757</v>
+        <v>0.4166450947487912</v>
       </c>
       <c r="P9">
-        <v>0.286568544280757</v>
+        <v>0.4166450947487912</v>
       </c>
       <c r="Q9">
-        <v>5.210656451494444</v>
+        <v>8.064204034657777</v>
       </c>
       <c r="R9">
-        <v>46.89590806344999</v>
+        <v>72.57783631192</v>
       </c>
       <c r="S9">
-        <v>0.03655484088331566</v>
+        <v>0.03034564695702219</v>
       </c>
       <c r="T9">
-        <v>0.03655484088331566</v>
+        <v>0.03034564695702218</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>1.262398</v>
       </c>
       <c r="I10">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="J10">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.577792666666667</v>
+        <v>1.45683</v>
       </c>
       <c r="N10">
-        <v>4.733378</v>
+        <v>4.37049</v>
       </c>
       <c r="O10">
-        <v>0.0365141380855655</v>
+        <v>0.0316729623813774</v>
       </c>
       <c r="P10">
-        <v>0.03651413808556551</v>
+        <v>0.0316729623813774</v>
       </c>
       <c r="Q10">
-        <v>0.6639341022715555</v>
+        <v>0.61303309278</v>
       </c>
       <c r="R10">
-        <v>5.975406920444</v>
+        <v>5.51729783502</v>
       </c>
       <c r="S10">
-        <v>0.004657763506665839</v>
+        <v>0.002306847114299578</v>
       </c>
       <c r="T10">
-        <v>0.00465776350666584</v>
+        <v>0.002306847114299578</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>1.262398</v>
       </c>
       <c r="I11">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="J11">
-        <v>0.1275605491700518</v>
+        <v>0.0728333234675871</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>18.96054266666667</v>
+        <v>14.800821</v>
       </c>
       <c r="N11">
-        <v>56.88162800000001</v>
+        <v>44.402463</v>
       </c>
       <c r="O11">
-        <v>0.4387952154515801</v>
+        <v>0.321784866282614</v>
       </c>
       <c r="P11">
-        <v>0.4387952154515802</v>
+        <v>0.321784866282614</v>
       </c>
       <c r="Q11">
-        <v>7.978583713771556</v>
+        <v>6.228175609585999</v>
       </c>
       <c r="R11">
-        <v>71.807253423944</v>
+        <v>56.05358048627399</v>
       </c>
       <c r="S11">
-        <v>0.05597295865619476</v>
+        <v>0.02343666125293589</v>
       </c>
       <c r="T11">
-        <v>0.05597295865619477</v>
+        <v>0.02343666125293589</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.6232970000000001</v>
+        <v>2.604514666666667</v>
       </c>
       <c r="H12">
-        <v>1.869891</v>
+        <v>7.813544</v>
       </c>
       <c r="I12">
-        <v>0.1889454220048966</v>
+        <v>0.4507979080925544</v>
       </c>
       <c r="J12">
-        <v>0.1889454220048966</v>
+        <v>0.4507979080925543</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.419936333333333</v>
+        <v>1.70492</v>
       </c>
       <c r="N12">
-        <v>4.259809000000001</v>
+        <v>5.11476</v>
       </c>
       <c r="O12">
-        <v>0.03286094075819314</v>
+        <v>0.03706669070739754</v>
       </c>
       <c r="P12">
-        <v>0.03286094075819315</v>
+        <v>0.03706669070739754</v>
       </c>
       <c r="Q12">
-        <v>0.8850420567576669</v>
+        <v>4.440489145493334</v>
       </c>
       <c r="R12">
-        <v>7.965378510819002</v>
+        <v>39.96440230944</v>
       </c>
       <c r="S12">
-        <v>0.006208924319034708</v>
+        <v>0.01670958663080854</v>
       </c>
       <c r="T12">
-        <v>0.006208924319034709</v>
+        <v>0.01670958663080854</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.6232970000000001</v>
+        <v>2.604514666666667</v>
       </c>
       <c r="H13">
-        <v>1.869891</v>
+        <v>7.813544</v>
       </c>
       <c r="I13">
-        <v>0.1889454220048966</v>
+        <v>0.4507979080925544</v>
       </c>
       <c r="J13">
-        <v>0.1889454220048966</v>
+        <v>0.4507979080925543</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>26.608287</v>
       </c>
       <c r="O13">
-        <v>0.2052611614239044</v>
+        <v>0.1928303858798197</v>
       </c>
       <c r="P13">
-        <v>0.2052611614239044</v>
+        <v>0.1928303858798197</v>
       </c>
       <c r="Q13">
-        <v>5.528288487413001</v>
+        <v>23.10055791545867</v>
       </c>
       <c r="R13">
-        <v>49.754596386717</v>
+        <v>207.905021239128</v>
       </c>
       <c r="S13">
-        <v>0.0387831567664548</v>
+        <v>0.08692753457130276</v>
       </c>
       <c r="T13">
-        <v>0.0387831567664548</v>
+        <v>0.08692753457130276</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.6232970000000001</v>
+        <v>2.604514666666667</v>
       </c>
       <c r="H14">
-        <v>1.869891</v>
+        <v>7.813544</v>
       </c>
       <c r="I14">
-        <v>0.1889454220048966</v>
+        <v>0.4507979080925544</v>
       </c>
       <c r="J14">
-        <v>0.1889454220048966</v>
+        <v>0.4507979080925543</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>12.38275833333333</v>
+        <v>19.16401333333333</v>
       </c>
       <c r="N14">
-        <v>37.148275</v>
+        <v>57.49204</v>
       </c>
       <c r="O14">
-        <v>0.286568544280757</v>
+        <v>0.4166450947487912</v>
       </c>
       <c r="P14">
-        <v>0.286568544280757</v>
+        <v>0.4166450947487912</v>
       </c>
       <c r="Q14">
-        <v>7.718136120891668</v>
+        <v>49.91295379886223</v>
       </c>
       <c r="R14">
-        <v>69.463225088025</v>
+        <v>449.21658418976</v>
       </c>
       <c r="S14">
-        <v>0.05414581453245651</v>
+        <v>0.1878227371297792</v>
       </c>
       <c r="T14">
-        <v>0.05414581453245651</v>
+        <v>0.1878227371297791</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.6232970000000001</v>
+        <v>2.604514666666667</v>
       </c>
       <c r="H15">
-        <v>1.869891</v>
+        <v>7.813544</v>
       </c>
       <c r="I15">
-        <v>0.1889454220048966</v>
+        <v>0.4507979080925544</v>
       </c>
       <c r="J15">
-        <v>0.1889454220048966</v>
+        <v>0.4507979080925543</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.577792666666667</v>
+        <v>1.45683</v>
       </c>
       <c r="N15">
-        <v>4.733378</v>
+        <v>4.37049</v>
       </c>
       <c r="O15">
-        <v>0.0365141380855655</v>
+        <v>0.0316729623813774</v>
       </c>
       <c r="P15">
-        <v>0.03651413808556551</v>
+        <v>0.0316729623813774</v>
       </c>
       <c r="Q15">
-        <v>0.9834334357553335</v>
+        <v>3.79433510184</v>
       </c>
       <c r="R15">
-        <v>8.850900921798001</v>
+        <v>34.14901591656</v>
       </c>
       <c r="S15">
-        <v>0.00689917922972224</v>
+        <v>0.0142781051846191</v>
       </c>
       <c r="T15">
-        <v>0.00689917922972224</v>
+        <v>0.0142781051846191</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.6232970000000001</v>
+        <v>2.604514666666667</v>
       </c>
       <c r="H16">
-        <v>1.869891</v>
+        <v>7.813544</v>
       </c>
       <c r="I16">
-        <v>0.1889454220048966</v>
+        <v>0.4507979080925544</v>
       </c>
       <c r="J16">
-        <v>0.1889454220048966</v>
+        <v>0.4507979080925543</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>18.96054266666667</v>
+        <v>14.800821</v>
       </c>
       <c r="N16">
-        <v>56.88162800000001</v>
+        <v>44.402463</v>
       </c>
       <c r="O16">
-        <v>0.4387952154515801</v>
+        <v>0.321784866282614</v>
       </c>
       <c r="P16">
-        <v>0.4387952154515802</v>
+        <v>0.321784866282614</v>
       </c>
       <c r="Q16">
-        <v>11.81804936250534</v>
+        <v>38.548955373208</v>
       </c>
       <c r="R16">
-        <v>106.362444262548</v>
+        <v>346.940598358872</v>
       </c>
       <c r="S16">
-        <v>0.08290834715722831</v>
+        <v>0.1450599445760447</v>
       </c>
       <c r="T16">
-        <v>0.08290834715722832</v>
+        <v>0.1450599445760447</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.3098866666666666</v>
+        <v>0.4289456666666667</v>
       </c>
       <c r="H17">
-        <v>0.9296599999999999</v>
+        <v>1.286837</v>
       </c>
       <c r="I17">
-        <v>0.09393863119351453</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="J17">
-        <v>0.09393863119351453</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.419936333333333</v>
+        <v>1.70492</v>
       </c>
       <c r="N17">
-        <v>4.259809000000001</v>
+        <v>5.11476</v>
       </c>
       <c r="O17">
-        <v>0.03286094075819314</v>
+        <v>0.03706669070739754</v>
       </c>
       <c r="P17">
-        <v>0.03286094075819315</v>
+        <v>0.03706669070739754</v>
       </c>
       <c r="Q17">
-        <v>0.4400193372155556</v>
+        <v>0.7313180460133334</v>
       </c>
       <c r="R17">
-        <v>3.96017403494</v>
+        <v>6.581862414120001</v>
       </c>
       <c r="S17">
-        <v>0.003086911794555835</v>
+        <v>0.002751954085269087</v>
       </c>
       <c r="T17">
-        <v>0.003086911794555836</v>
+        <v>0.002751954085269087</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.3098866666666666</v>
+        <v>0.4289456666666667</v>
       </c>
       <c r="H18">
-        <v>0.9296599999999999</v>
+        <v>1.286837</v>
       </c>
       <c r="I18">
-        <v>0.09393863119351453</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="J18">
-        <v>0.09393863119351453</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>26.608287</v>
       </c>
       <c r="O18">
-        <v>0.2052611614239044</v>
+        <v>0.1928303858798197</v>
       </c>
       <c r="P18">
-        <v>0.2052611614239044</v>
+        <v>0.1928303858798197</v>
       </c>
       <c r="Q18">
-        <v>2.748517788046667</v>
+        <v>3.804503135357667</v>
       </c>
       <c r="R18">
-        <v>24.73666009242</v>
+        <v>34.240528218219</v>
       </c>
       <c r="S18">
-        <v>0.0192819525413526</v>
+        <v>0.01431636755422783</v>
       </c>
       <c r="T18">
-        <v>0.0192819525413526</v>
+        <v>0.01431636755422783</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.3098866666666666</v>
+        <v>0.4289456666666667</v>
       </c>
       <c r="H19">
-        <v>0.9296599999999999</v>
+        <v>1.286837</v>
       </c>
       <c r="I19">
-        <v>0.09393863119351453</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="J19">
-        <v>0.09393863119351453</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>12.38275833333333</v>
+        <v>19.16401333333333</v>
       </c>
       <c r="N19">
-        <v>37.148275</v>
+        <v>57.49204</v>
       </c>
       <c r="O19">
-        <v>0.286568544280757</v>
+        <v>0.4166450947487912</v>
       </c>
       <c r="P19">
-        <v>0.286568544280757</v>
+        <v>0.4166450947487912</v>
       </c>
       <c r="Q19">
-        <v>3.837251704055555</v>
+        <v>8.220320475275555</v>
       </c>
       <c r="R19">
-        <v>34.5352653365</v>
+        <v>73.98288427748</v>
       </c>
       <c r="S19">
-        <v>0.02691985679285237</v>
+        <v>0.03093311403632893</v>
       </c>
       <c r="T19">
-        <v>0.02691985679285237</v>
+        <v>0.03093311403632892</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.3098866666666666</v>
+        <v>0.4289456666666667</v>
       </c>
       <c r="H20">
-        <v>0.9296599999999999</v>
+        <v>1.286837</v>
       </c>
       <c r="I20">
-        <v>0.09393863119351453</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="J20">
-        <v>0.09393863119351453</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.577792666666667</v>
+        <v>1.45683</v>
       </c>
       <c r="N20">
-        <v>4.733378</v>
+        <v>4.37049</v>
       </c>
       <c r="O20">
-        <v>0.0365141380855655</v>
+        <v>0.0316729623813774</v>
       </c>
       <c r="P20">
-        <v>0.03651413808556551</v>
+        <v>0.0316729623813774</v>
       </c>
       <c r="Q20">
-        <v>0.4889369101644444</v>
+        <v>0.62490091557</v>
       </c>
       <c r="R20">
-        <v>4.400432191479999</v>
+        <v>5.62410824013</v>
       </c>
       <c r="S20">
-        <v>0.003430088150969</v>
+        <v>0.002351505800883657</v>
       </c>
       <c r="T20">
-        <v>0.003430088150969001</v>
+        <v>0.002351505800883657</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.3098866666666666</v>
+        <v>0.4289456666666667</v>
       </c>
       <c r="H21">
-        <v>0.9296599999999999</v>
+        <v>1.286837</v>
       </c>
       <c r="I21">
-        <v>0.09393863119351453</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="J21">
-        <v>0.09393863119351453</v>
+        <v>0.07424331745698218</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>18.96054266666667</v>
+        <v>14.800821</v>
       </c>
       <c r="N21">
-        <v>56.88162800000001</v>
+        <v>44.402463</v>
       </c>
       <c r="O21">
-        <v>0.4387952154515801</v>
+        <v>0.321784866282614</v>
       </c>
       <c r="P21">
-        <v>0.4387952154515802</v>
+        <v>0.321784866282614</v>
       </c>
       <c r="Q21">
-        <v>5.875619365164445</v>
+        <v>6.348748031058999</v>
       </c>
       <c r="R21">
-        <v>52.88057428648001</v>
+        <v>57.138732279531</v>
       </c>
       <c r="S21">
-        <v>0.04121982191378473</v>
+        <v>0.02389037598027267</v>
       </c>
       <c r="T21">
-        <v>0.04121982191378474</v>
+        <v>0.02389037598027267</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>1.642757</v>
+        <v>1.476162666666667</v>
       </c>
       <c r="H22">
-        <v>4.928271</v>
+        <v>4.428488</v>
       </c>
       <c r="I22">
-        <v>0.4979831679223512</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="J22">
-        <v>0.4979831679223513</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>1.419936333333333</v>
+        <v>1.70492</v>
       </c>
       <c r="N22">
-        <v>4.259809000000001</v>
+        <v>5.11476</v>
       </c>
       <c r="O22">
-        <v>0.03286094075819314</v>
+        <v>0.03706669070739754</v>
       </c>
       <c r="P22">
-        <v>0.03286094075819315</v>
+        <v>0.03706669070739754</v>
       </c>
       <c r="Q22">
-        <v>2.332610351137667</v>
+        <v>2.516739253653333</v>
       </c>
       <c r="R22">
-        <v>20.993493160239</v>
+        <v>22.65065328288</v>
       </c>
       <c r="S22">
-        <v>0.01636419537967373</v>
+        <v>0.00947050453411359</v>
       </c>
       <c r="T22">
-        <v>0.01636419537967373</v>
+        <v>0.00947050453411359</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>1.642757</v>
+        <v>1.476162666666667</v>
       </c>
       <c r="H23">
-        <v>4.928271</v>
+        <v>4.428488</v>
       </c>
       <c r="I23">
-        <v>0.4979831679223512</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="J23">
-        <v>0.4979831679223513</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>26.608287</v>
       </c>
       <c r="O23">
-        <v>0.2052611614239044</v>
+        <v>0.1928303858798197</v>
       </c>
       <c r="P23">
-        <v>0.2052611614239044</v>
+        <v>0.1928303858798197</v>
       </c>
       <c r="Q23">
-        <v>14.570316575753</v>
+        <v>13.09271996445067</v>
       </c>
       <c r="R23">
-        <v>131.132849181777</v>
+        <v>117.834479680056</v>
       </c>
       <c r="S23">
-        <v>0.102216603417297</v>
+        <v>0.04926798181703455</v>
       </c>
       <c r="T23">
-        <v>0.102216603417297</v>
+        <v>0.04926798181703455</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>1.642757</v>
+        <v>1.476162666666667</v>
       </c>
       <c r="H24">
-        <v>4.928271</v>
+        <v>4.428488</v>
       </c>
       <c r="I24">
-        <v>0.4979831679223512</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="J24">
-        <v>0.4979831679223513</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>12.38275833333333</v>
+        <v>19.16401333333333</v>
       </c>
       <c r="N24">
-        <v>37.148275</v>
+        <v>57.49204</v>
       </c>
       <c r="O24">
-        <v>0.286568544280757</v>
+        <v>0.4166450947487912</v>
       </c>
       <c r="P24">
-        <v>0.286568544280757</v>
+        <v>0.4166450947487912</v>
       </c>
       <c r="Q24">
-        <v>20.34186293139166</v>
+        <v>28.28920102616889</v>
       </c>
       <c r="R24">
-        <v>183.076766382525</v>
+        <v>254.60280923552</v>
       </c>
       <c r="S24">
-        <v>0.1427063115078279</v>
+        <v>0.1064524289498314</v>
       </c>
       <c r="T24">
-        <v>0.1427063115078279</v>
+        <v>0.1064524289498314</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>1.642757</v>
+        <v>1.476162666666667</v>
       </c>
       <c r="H25">
-        <v>4.928271</v>
+        <v>4.428488</v>
       </c>
       <c r="I25">
-        <v>0.4979831679223512</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="J25">
-        <v>0.4979831679223513</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.577792666666667</v>
+        <v>1.45683</v>
       </c>
       <c r="N25">
-        <v>4.733378</v>
+        <v>4.37049</v>
       </c>
       <c r="O25">
-        <v>0.0365141380855655</v>
+        <v>0.0316729623813774</v>
       </c>
       <c r="P25">
-        <v>0.03651413808556551</v>
+        <v>0.0316729623813774</v>
       </c>
       <c r="Q25">
-        <v>2.591929947715333</v>
+        <v>2.15051805768</v>
       </c>
       <c r="R25">
-        <v>23.327369529438</v>
+        <v>19.35466251912</v>
       </c>
       <c r="S25">
-        <v>0.01818342615780408</v>
+        <v>0.008092412031316835</v>
       </c>
       <c r="T25">
-        <v>0.01818342615780409</v>
+        <v>0.008092412031316835</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>1.642757</v>
+        <v>1.476162666666667</v>
       </c>
       <c r="H26">
-        <v>4.928271</v>
+        <v>4.428488</v>
       </c>
       <c r="I26">
-        <v>0.4979831679223512</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="J26">
-        <v>0.4979831679223513</v>
+        <v>0.2554990573308322</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>18.96054266666667</v>
+        <v>14.800821</v>
       </c>
       <c r="N26">
-        <v>56.88162800000001</v>
+        <v>44.402463</v>
       </c>
       <c r="O26">
-        <v>0.4387952154515801</v>
+        <v>0.321784866282614</v>
       </c>
       <c r="P26">
-        <v>0.4387952154515802</v>
+        <v>0.321784866282614</v>
       </c>
       <c r="Q26">
-        <v>31.14756418946533</v>
+        <v>21.84841939621599</v>
       </c>
       <c r="R26">
-        <v>280.328077705188</v>
+        <v>196.635774565944</v>
       </c>
       <c r="S26">
-        <v>0.2185126314597485</v>
+        <v>0.08221572999853576</v>
       </c>
       <c r="T26">
-        <v>0.2185126314597486</v>
+        <v>0.08221572999853576</v>
       </c>
     </row>
   </sheetData>
